--- a/progression_2020_2021_IPT_MPSI.xlsx
+++ b/progression_2020_2021_IPT_MPSI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="440" yWindow="460" windowWidth="20280" windowHeight="11240" activeTab="1"/>
+    <workbookView xWindow="440" yWindow="460" windowWidth="20280" windowHeight="11240"/>
   </bookViews>
   <sheets>
     <sheet name="Planning DS" sheetId="16" r:id="rId1"/>
@@ -3667,7 +3667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -3909,7 +3909,7 @@
   </sheetPr>
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView topLeftCell="K32" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>

--- a/progression_2020_2021_IPT_MPSI.xlsx
+++ b/progression_2020_2021_IPT_MPSI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="440" yWindow="460" windowWidth="20280" windowHeight="11240"/>
+    <workbookView minimized="1" xWindow="440" yWindow="460" windowWidth="20280" windowHeight="11240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Planning DS" sheetId="16" r:id="rId1"/>
@@ -2550,6 +2550,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2559,52 +2571,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2620,42 +2668,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2684,18 +2696,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="654">
@@ -3667,7 +3667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -3696,7 +3696,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="48" x14ac:dyDescent="0.15">
-      <c r="A2" s="96">
+      <c r="A2" s="100">
         <v>1</v>
       </c>
       <c r="B2" s="85" t="s">
@@ -3710,7 +3710,7 @@
       <c r="F2" s="86"/>
     </row>
     <row r="3" spans="1:8" ht="78" x14ac:dyDescent="0.15">
-      <c r="A3" s="97"/>
+      <c r="A3" s="101"/>
       <c r="B3" s="3" t="s">
         <v>332</v>
       </c>
@@ -3722,7 +3722,7 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="97"/>
+      <c r="A4" s="101"/>
       <c r="B4" s="3" t="s">
         <v>336</v>
       </c>
@@ -3734,7 +3734,7 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="97"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="3" t="s">
         <v>333</v>
       </c>
@@ -3746,7 +3746,7 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:8" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="98"/>
+      <c r="A6" s="102"/>
       <c r="B6" s="87" t="s">
         <v>334</v>
       </c>
@@ -3758,7 +3758,7 @@
       <c r="F6" s="88"/>
     </row>
     <row r="7" spans="1:8" ht="48" x14ac:dyDescent="0.15">
-      <c r="A7" s="96">
+      <c r="A7" s="100">
         <v>2</v>
       </c>
       <c r="B7" s="89" t="s">
@@ -3772,7 +3772,7 @@
       <c r="F7" s="86"/>
     </row>
     <row r="8" spans="1:8" ht="39" x14ac:dyDescent="0.15">
-      <c r="A8" s="97"/>
+      <c r="A8" s="101"/>
       <c r="B8" s="90" t="s">
         <v>332</v>
       </c>
@@ -3784,7 +3784,7 @@
       <c r="F8" s="90"/>
     </row>
     <row r="9" spans="1:8" ht="26" x14ac:dyDescent="0.15">
-      <c r="A9" s="97"/>
+      <c r="A9" s="101"/>
       <c r="B9" s="90" t="s">
         <v>336</v>
       </c>
@@ -3799,7 +3799,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="97"/>
+      <c r="A10" s="101"/>
       <c r="B10" s="90" t="s">
         <v>333</v>
       </c>
@@ -3811,7 +3811,7 @@
       <c r="F10" s="90"/>
     </row>
     <row r="11" spans="1:8" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="98"/>
+      <c r="A11" s="102"/>
       <c r="B11" s="91" t="s">
         <v>334</v>
       </c>
@@ -3823,7 +3823,7 @@
       <c r="F11" s="88"/>
     </row>
     <row r="12" spans="1:8" ht="48" x14ac:dyDescent="0.15">
-      <c r="A12" s="96">
+      <c r="A12" s="100">
         <v>3</v>
       </c>
       <c r="B12" s="92" t="s">
@@ -3837,7 +3837,7 @@
       <c r="F12" s="86"/>
     </row>
     <row r="13" spans="1:8" ht="26" x14ac:dyDescent="0.15">
-      <c r="A13" s="97"/>
+      <c r="A13" s="101"/>
       <c r="B13" s="93" t="s">
         <v>332</v>
       </c>
@@ -3849,7 +3849,7 @@
       <c r="F13" s="93"/>
     </row>
     <row r="14" spans="1:8" ht="26" x14ac:dyDescent="0.15">
-      <c r="A14" s="97"/>
+      <c r="A14" s="101"/>
       <c r="B14" s="93" t="s">
         <v>336</v>
       </c>
@@ -3864,7 +3864,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="97"/>
+      <c r="A15" s="101"/>
       <c r="B15" s="93" t="s">
         <v>333</v>
       </c>
@@ -3876,7 +3876,7 @@
       <c r="F15" s="93"/>
     </row>
     <row r="16" spans="1:8" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="98"/>
+      <c r="A16" s="102"/>
       <c r="B16" s="94" t="s">
         <v>334</v>
       </c>
@@ -3909,8 +3909,8 @@
   </sheetPr>
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView topLeftCell="K32" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3924,7 +3924,7 @@
     <col min="9" max="9" width="5.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="37.33203125" style="1" customWidth="1"/>
     <col min="11" max="11" width="42.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="35.6640625" style="1" customWidth="1"/>
     <col min="13" max="14" width="32.6640625" style="1" customWidth="1"/>
     <col min="15" max="18" width="10.83203125" style="1" customWidth="1"/>
     <col min="19" max="19" width="41.33203125" style="1" customWidth="1"/>
@@ -4001,10 +4001,10 @@
       <c r="B2" s="9">
         <v>44074</v>
       </c>
-      <c r="C2" s="126">
+      <c r="C2" s="125">
         <v>1</v>
       </c>
-      <c r="D2" s="129" t="s">
+      <c r="D2" s="128" t="s">
         <v>261</v>
       </c>
       <c r="E2" s="26">
@@ -4058,8 +4058,8 @@
         <f>B2+7</f>
         <v>44081</v>
       </c>
-      <c r="C3" s="127"/>
-      <c r="D3" s="130"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="129"/>
       <c r="E3" s="26">
         <v>2</v>
       </c>
@@ -4110,8 +4110,8 @@
         <f>B3+7</f>
         <v>44088</v>
       </c>
-      <c r="C4" s="127"/>
-      <c r="D4" s="130"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="129"/>
       <c r="E4" s="26">
         <v>2</v>
       </c>
@@ -4163,8 +4163,8 @@
         <f t="shared" ref="B5:B8" si="0">B4+7</f>
         <v>44095</v>
       </c>
-      <c r="C5" s="127"/>
-      <c r="D5" s="130"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="129"/>
       <c r="E5" s="26">
         <v>3</v>
       </c>
@@ -4216,8 +4216,8 @@
         <f>B5+7</f>
         <v>44102</v>
       </c>
-      <c r="C6" s="127"/>
-      <c r="D6" s="130"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="129"/>
       <c r="E6" s="26">
         <v>4</v>
       </c>
@@ -4263,7 +4263,7 @@
       <c r="W6" s="75"/>
       <c r="X6" s="75"/>
     </row>
-    <row r="7" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:24" ht="26" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -4271,8 +4271,8 @@
         <f t="shared" si="0"/>
         <v>44109</v>
       </c>
-      <c r="C7" s="127"/>
-      <c r="D7" s="130"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="129"/>
       <c r="E7" s="26">
         <v>4</v>
       </c>
@@ -4312,7 +4312,7 @@
       <c r="W7" s="75"/>
       <c r="X7" s="75"/>
     </row>
-    <row r="8" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -4320,8 +4320,8 @@
         <f t="shared" si="0"/>
         <v>44116</v>
       </c>
-      <c r="C8" s="128"/>
-      <c r="D8" s="131"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="130"/>
       <c r="E8" s="26">
         <v>5</v>
       </c>
@@ -4368,24 +4368,24 @@
       <c r="X8" s="75"/>
     </row>
     <row r="9" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="101" t="s">
+      <c r="A9" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="102"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="102"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="102"/>
-      <c r="M9" s="102"/>
-      <c r="N9" s="102"/>
-      <c r="O9" s="102"/>
-      <c r="P9" s="102"/>
+      <c r="B9" s="104"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="104"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="104"/>
+      <c r="P9" s="104"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="41"/>
       <c r="S9" s="32"/>
@@ -4401,10 +4401,10 @@
         <f>B8+21</f>
         <v>44137</v>
       </c>
-      <c r="C10" s="126">
+      <c r="C10" s="125">
         <v>1</v>
       </c>
-      <c r="D10" s="129" t="s">
+      <c r="D10" s="128" t="s">
         <v>261</v>
       </c>
       <c r="E10" s="26">
@@ -4454,8 +4454,8 @@
         <f t="shared" ref="B11:B16" si="1">B10+7</f>
         <v>44144</v>
       </c>
-      <c r="C11" s="127"/>
-      <c r="D11" s="130"/>
+      <c r="C11" s="126"/>
+      <c r="D11" s="129"/>
       <c r="E11" s="26">
         <v>6</v>
       </c>
@@ -4505,8 +4505,8 @@
         <f t="shared" si="1"/>
         <v>44151</v>
       </c>
-      <c r="C12" s="127"/>
-      <c r="D12" s="130"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="129"/>
       <c r="E12" s="26">
         <v>6</v>
       </c>
@@ -4551,8 +4551,8 @@
         <f t="shared" si="1"/>
         <v>44158</v>
       </c>
-      <c r="C13" s="127"/>
-      <c r="D13" s="130"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="129"/>
       <c r="E13" s="26">
         <v>7</v>
       </c>
@@ -4604,8 +4604,8 @@
         <f t="shared" si="1"/>
         <v>44165</v>
       </c>
-      <c r="C14" s="127"/>
-      <c r="D14" s="130"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="129"/>
       <c r="E14" s="26">
         <v>7</v>
       </c>
@@ -4652,8 +4652,8 @@
         <f t="shared" si="1"/>
         <v>44172</v>
       </c>
-      <c r="C15" s="127"/>
-      <c r="D15" s="130"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="129"/>
       <c r="E15" s="26">
         <v>8</v>
       </c>
@@ -4705,8 +4705,8 @@
         <f t="shared" si="1"/>
         <v>44179</v>
       </c>
-      <c r="C16" s="128"/>
-      <c r="D16" s="131"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="130"/>
       <c r="E16" s="26">
         <v>8</v>
       </c>
@@ -4747,24 +4747,24 @@
       <c r="X16" s="75"/>
     </row>
     <row r="17" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="101" t="s">
+      <c r="A17" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="102"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="102"/>
-      <c r="J17" s="102"/>
-      <c r="K17" s="102"/>
-      <c r="L17" s="102"/>
-      <c r="M17" s="102"/>
-      <c r="N17" s="102"/>
-      <c r="O17" s="102"/>
-      <c r="P17" s="102"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="104"/>
+      <c r="J17" s="104"/>
+      <c r="K17" s="104"/>
+      <c r="L17" s="104"/>
+      <c r="M17" s="104"/>
+      <c r="N17" s="104"/>
+      <c r="O17" s="104"/>
+      <c r="P17" s="104"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="41"/>
       <c r="S17" s="32"/>
@@ -4780,10 +4780,10 @@
         <f>B16+21</f>
         <v>44200</v>
       </c>
-      <c r="C18" s="120">
+      <c r="C18" s="119">
         <v>2</v>
       </c>
-      <c r="D18" s="123" t="s">
+      <c r="D18" s="122" t="s">
         <v>184</v>
       </c>
       <c r="E18" s="28">
@@ -4837,8 +4837,8 @@
         <f>B18+7</f>
         <v>44207</v>
       </c>
-      <c r="C19" s="121"/>
-      <c r="D19" s="124"/>
+      <c r="C19" s="120"/>
+      <c r="D19" s="123"/>
       <c r="E19" s="28">
         <v>1</v>
       </c>
@@ -4886,8 +4886,8 @@
         <f t="shared" ref="B20:B40" si="2">B19+7</f>
         <v>44214</v>
       </c>
-      <c r="C20" s="121"/>
-      <c r="D20" s="124"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="123"/>
       <c r="E20" s="28">
         <v>2</v>
       </c>
@@ -4939,8 +4939,8 @@
         <f>B20+7</f>
         <v>44221</v>
       </c>
-      <c r="C21" s="122"/>
-      <c r="D21" s="125"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="124"/>
       <c r="E21" s="28">
         <v>2</v>
       </c>
@@ -4988,10 +4988,10 @@
         <f>B21+7</f>
         <v>44228</v>
       </c>
-      <c r="C22" s="141">
+      <c r="C22" s="96">
         <v>3</v>
       </c>
-      <c r="D22" s="142" t="s">
+      <c r="D22" s="97" t="s">
         <v>60</v>
       </c>
       <c r="E22" s="35">
@@ -5038,24 +5038,24 @@
       <c r="X22" s="75"/>
     </row>
     <row r="23" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="101" t="s">
+      <c r="A23" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="102"/>
-      <c r="C23" s="102"/>
-      <c r="D23" s="102"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="102"/>
-      <c r="H23" s="102"/>
-      <c r="I23" s="102"/>
-      <c r="J23" s="102"/>
-      <c r="K23" s="102"/>
-      <c r="L23" s="102"/>
-      <c r="M23" s="102"/>
-      <c r="N23" s="102"/>
-      <c r="O23" s="102"/>
-      <c r="P23" s="102"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="104"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="104"/>
+      <c r="H23" s="104"/>
+      <c r="I23" s="104"/>
+      <c r="J23" s="104"/>
+      <c r="K23" s="104"/>
+      <c r="L23" s="104"/>
+      <c r="M23" s="104"/>
+      <c r="N23" s="104"/>
+      <c r="O23" s="104"/>
+      <c r="P23" s="104"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="50"/>
       <c r="S23" s="32"/>
@@ -5071,10 +5071,10 @@
         <f>B22+21</f>
         <v>44249</v>
       </c>
-      <c r="C24" s="106">
+      <c r="C24" s="105">
         <v>3</v>
       </c>
-      <c r="D24" s="103" t="s">
+      <c r="D24" s="108" t="s">
         <v>60</v>
       </c>
       <c r="E24" s="35">
@@ -5125,8 +5125,8 @@
         <f>B24+7</f>
         <v>44256</v>
       </c>
-      <c r="C25" s="107"/>
-      <c r="D25" s="104"/>
+      <c r="C25" s="106"/>
+      <c r="D25" s="109"/>
       <c r="E25" s="34">
         <v>2</v>
       </c>
@@ -5171,8 +5171,8 @@
         <f>B25+7</f>
         <v>44263</v>
       </c>
-      <c r="C26" s="107"/>
-      <c r="D26" s="104"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="109"/>
       <c r="E26" s="29">
         <v>3</v>
       </c>
@@ -5222,8 +5222,8 @@
         <f t="shared" si="2"/>
         <v>44270</v>
       </c>
-      <c r="C27" s="107"/>
-      <c r="D27" s="104"/>
+      <c r="C27" s="106"/>
+      <c r="D27" s="109"/>
       <c r="E27" s="35">
         <v>3</v>
       </c>
@@ -5270,8 +5270,8 @@
         <f t="shared" si="2"/>
         <v>44277</v>
       </c>
-      <c r="C28" s="107"/>
-      <c r="D28" s="104"/>
+      <c r="C28" s="106"/>
+      <c r="D28" s="109"/>
       <c r="E28" s="29">
         <v>4</v>
       </c>
@@ -5321,8 +5321,8 @@
         <f t="shared" si="2"/>
         <v>44284</v>
       </c>
-      <c r="C29" s="108"/>
-      <c r="D29" s="105"/>
+      <c r="C29" s="107"/>
+      <c r="D29" s="110"/>
       <c r="E29" s="35">
         <v>4</v>
       </c>
@@ -5370,10 +5370,10 @@
         <f t="shared" si="2"/>
         <v>44291</v>
       </c>
-      <c r="C30" s="143">
+      <c r="C30" s="98">
         <v>4</v>
       </c>
-      <c r="D30" s="144" t="s">
+      <c r="D30" s="99" t="s">
         <v>43</v>
       </c>
       <c r="E30" s="30">
@@ -5418,24 +5418,24 @@
       <c r="X30" s="75"/>
     </row>
     <row r="31" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="99" t="s">
+      <c r="A31" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="100"/>
-      <c r="C31" s="100"/>
-      <c r="D31" s="100"/>
-      <c r="E31" s="100"/>
-      <c r="F31" s="100"/>
-      <c r="G31" s="100"/>
-      <c r="H31" s="100"/>
-      <c r="I31" s="100"/>
-      <c r="J31" s="100"/>
-      <c r="K31" s="100"/>
-      <c r="L31" s="100"/>
-      <c r="M31" s="100"/>
-      <c r="N31" s="100"/>
-      <c r="O31" s="100"/>
-      <c r="P31" s="100"/>
+      <c r="B31" s="112"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="112"/>
+      <c r="F31" s="112"/>
+      <c r="G31" s="112"/>
+      <c r="H31" s="112"/>
+      <c r="I31" s="112"/>
+      <c r="J31" s="112"/>
+      <c r="K31" s="112"/>
+      <c r="L31" s="112"/>
+      <c r="M31" s="112"/>
+      <c r="N31" s="112"/>
+      <c r="O31" s="112"/>
+      <c r="P31" s="112"/>
       <c r="Q31" s="47"/>
       <c r="R31" s="51"/>
       <c r="S31" s="32"/>
@@ -5451,10 +5451,10 @@
         <f>B30+21</f>
         <v>44312</v>
       </c>
-      <c r="C32" s="109">
+      <c r="C32" s="113">
         <v>4</v>
       </c>
-      <c r="D32" s="111" t="s">
+      <c r="D32" s="116" t="s">
         <v>43</v>
       </c>
       <c r="E32" s="30">
@@ -5509,7 +5509,7 @@
         <v>44319</v>
       </c>
       <c r="C33" s="114"/>
-      <c r="D33" s="113"/>
+      <c r="D33" s="117"/>
       <c r="E33" s="30">
         <v>2</v>
       </c>
@@ -5555,7 +5555,7 @@
         <v>44326</v>
       </c>
       <c r="C34" s="114"/>
-      <c r="D34" s="113"/>
+      <c r="D34" s="117"/>
       <c r="E34" s="30">
         <v>3</v>
       </c>
@@ -5601,8 +5601,8 @@
         <f t="shared" si="2"/>
         <v>44333</v>
       </c>
-      <c r="C35" s="110"/>
-      <c r="D35" s="112"/>
+      <c r="C35" s="115"/>
+      <c r="D35" s="118"/>
       <c r="E35" s="30">
         <v>4</v>
       </c>
@@ -5646,10 +5646,10 @@
         <f t="shared" si="2"/>
         <v>44340</v>
       </c>
-      <c r="C36" s="117">
+      <c r="C36" s="133">
         <v>5</v>
       </c>
-      <c r="D36" s="115" t="s">
+      <c r="D36" s="131" t="s">
         <v>49</v>
       </c>
       <c r="E36" s="31">
@@ -5689,8 +5689,8 @@
         <f t="shared" si="2"/>
         <v>44347</v>
       </c>
-      <c r="C37" s="118"/>
-      <c r="D37" s="116"/>
+      <c r="C37" s="134"/>
+      <c r="D37" s="132"/>
       <c r="E37" s="31">
         <v>1</v>
       </c>
@@ -5730,8 +5730,8 @@
         <f t="shared" si="2"/>
         <v>44354</v>
       </c>
-      <c r="C38" s="118"/>
-      <c r="D38" s="116"/>
+      <c r="C38" s="134"/>
+      <c r="D38" s="132"/>
       <c r="E38" s="31">
         <v>1</v>
       </c>
@@ -5769,8 +5769,8 @@
         <f t="shared" si="2"/>
         <v>44361</v>
       </c>
-      <c r="C39" s="118"/>
-      <c r="D39" s="116"/>
+      <c r="C39" s="134"/>
+      <c r="D39" s="132"/>
       <c r="E39" s="31">
         <v>1</v>
       </c>
@@ -5808,8 +5808,8 @@
         <f t="shared" si="2"/>
         <v>44368</v>
       </c>
-      <c r="C40" s="119"/>
-      <c r="D40" s="116"/>
+      <c r="C40" s="135"/>
+      <c r="D40" s="132"/>
       <c r="E40" s="31">
         <v>1</v>
       </c>
@@ -5838,24 +5838,24 @@
       <c r="X40" s="75"/>
     </row>
     <row r="41" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="99" t="s">
+      <c r="A41" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="100"/>
-      <c r="C41" s="100"/>
-      <c r="D41" s="100"/>
-      <c r="E41" s="100"/>
-      <c r="F41" s="100"/>
-      <c r="G41" s="100"/>
-      <c r="H41" s="100"/>
-      <c r="I41" s="100"/>
-      <c r="J41" s="100"/>
-      <c r="K41" s="100"/>
-      <c r="L41" s="100"/>
-      <c r="M41" s="100"/>
-      <c r="N41" s="100"/>
-      <c r="O41" s="100"/>
-      <c r="P41" s="100"/>
+      <c r="B41" s="112"/>
+      <c r="C41" s="112"/>
+      <c r="D41" s="112"/>
+      <c r="E41" s="112"/>
+      <c r="F41" s="112"/>
+      <c r="G41" s="112"/>
+      <c r="H41" s="112"/>
+      <c r="I41" s="112"/>
+      <c r="J41" s="112"/>
+      <c r="K41" s="112"/>
+      <c r="L41" s="112"/>
+      <c r="M41" s="112"/>
+      <c r="N41" s="112"/>
+      <c r="O41" s="112"/>
+      <c r="P41" s="112"/>
       <c r="Q41" s="47"/>
       <c r="R41" s="51"/>
       <c r="V41" s="70"/>
@@ -5924,12 +5924,9 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A23:P23"/>
-    <mergeCell ref="C24:C29"/>
-    <mergeCell ref="D24:D29"/>
-    <mergeCell ref="A31:P31"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="A41:P41"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="C36:C40"/>
     <mergeCell ref="C18:C21"/>
     <mergeCell ref="D18:D21"/>
     <mergeCell ref="A9:P9"/>
@@ -5938,9 +5935,12 @@
     <mergeCell ref="D2:D8"/>
     <mergeCell ref="D10:D16"/>
     <mergeCell ref="C10:C16"/>
-    <mergeCell ref="A41:P41"/>
-    <mergeCell ref="D36:D40"/>
-    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="A23:P23"/>
+    <mergeCell ref="C24:C29"/>
+    <mergeCell ref="D24:D29"/>
+    <mergeCell ref="A31:P31"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="D32:D35"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6734,12 +6734,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="136" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="134"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="138"/>
     </row>
     <row r="2" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A2" s="54" t="s">
@@ -6830,12 +6830,12 @@
       <c r="D11" s="61"/>
     </row>
     <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A12" s="132" t="s">
+      <c r="A12" s="136" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="133"/>
-      <c r="C12" s="133"/>
-      <c r="D12" s="134"/>
+      <c r="B12" s="137"/>
+      <c r="C12" s="137"/>
+      <c r="D12" s="138"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="54" t="s">
@@ -7100,12 +7100,12 @@
       <c r="D40" s="61"/>
     </row>
     <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="135" t="s">
+      <c r="A41" s="139" t="s">
         <v>140</v>
       </c>
-      <c r="B41" s="136"/>
-      <c r="C41" s="136"/>
-      <c r="D41" s="137"/>
+      <c r="B41" s="140"/>
+      <c r="C41" s="140"/>
+      <c r="D41" s="141"/>
     </row>
     <row r="42" spans="1:4" ht="33" x14ac:dyDescent="0.15">
       <c r="A42" s="54" t="s">
@@ -7204,12 +7204,12 @@
       <c r="D51" s="66"/>
     </row>
     <row r="52" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="138" t="s">
+      <c r="A52" s="142" t="s">
         <v>159</v>
       </c>
-      <c r="B52" s="139"/>
-      <c r="C52" s="139"/>
-      <c r="D52" s="140"/>
+      <c r="B52" s="143"/>
+      <c r="C52" s="143"/>
+      <c r="D52" s="144"/>
     </row>
     <row r="53" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A53" s="67" t="s">
@@ -7298,12 +7298,12 @@
       <c r="D61" s="66"/>
     </row>
     <row r="62" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="138" t="s">
+      <c r="A62" s="142" t="s">
         <v>176</v>
       </c>
-      <c r="B62" s="139"/>
-      <c r="C62" s="139"/>
-      <c r="D62" s="140"/>
+      <c r="B62" s="143"/>
+      <c r="C62" s="143"/>
+      <c r="D62" s="144"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="67" t="s">

--- a/progression_2020_2021_IPT_MPSI.xlsx
+++ b/progression_2020_2021_IPT_MPSI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="440" yWindow="460" windowWidth="20280" windowHeight="11240" activeTab="1"/>
+    <workbookView xWindow="440" yWindow="460" windowWidth="24880" windowHeight="13340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Planning DS" sheetId="16" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Cycles MPSI IPT'!$A$3:$B$7</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Semanier MPSI IPT 2019-2020'!$A$18:$H$20</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -2571,12 +2571,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2595,12 +2652,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2617,57 +2668,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3909,8 +3909,8 @@
   </sheetPr>
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="F4" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4001,10 +4001,10 @@
       <c r="B2" s="9">
         <v>44074</v>
       </c>
-      <c r="C2" s="125">
+      <c r="C2" s="118">
         <v>1</v>
       </c>
-      <c r="D2" s="128" t="s">
+      <c r="D2" s="121" t="s">
         <v>261</v>
       </c>
       <c r="E2" s="26">
@@ -4058,8 +4058,8 @@
         <f>B2+7</f>
         <v>44081</v>
       </c>
-      <c r="C3" s="126"/>
-      <c r="D3" s="129"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="122"/>
       <c r="E3" s="26">
         <v>2</v>
       </c>
@@ -4110,8 +4110,8 @@
         <f>B3+7</f>
         <v>44088</v>
       </c>
-      <c r="C4" s="126"/>
-      <c r="D4" s="129"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="122"/>
       <c r="E4" s="26">
         <v>2</v>
       </c>
@@ -4163,8 +4163,8 @@
         <f t="shared" ref="B5:B8" si="0">B4+7</f>
         <v>44095</v>
       </c>
-      <c r="C5" s="126"/>
-      <c r="D5" s="129"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="122"/>
       <c r="E5" s="26">
         <v>3</v>
       </c>
@@ -4216,8 +4216,8 @@
         <f>B5+7</f>
         <v>44102</v>
       </c>
-      <c r="C6" s="126"/>
-      <c r="D6" s="129"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="122"/>
       <c r="E6" s="26">
         <v>4</v>
       </c>
@@ -4271,8 +4271,8 @@
         <f t="shared" si="0"/>
         <v>44109</v>
       </c>
-      <c r="C7" s="126"/>
-      <c r="D7" s="129"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="122"/>
       <c r="E7" s="26">
         <v>4</v>
       </c>
@@ -4320,8 +4320,8 @@
         <f t="shared" si="0"/>
         <v>44116</v>
       </c>
-      <c r="C8" s="127"/>
-      <c r="D8" s="130"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="123"/>
       <c r="E8" s="26">
         <v>5</v>
       </c>
@@ -4368,24 +4368,24 @@
       <c r="X8" s="75"/>
     </row>
     <row r="9" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="103" t="s">
+      <c r="A9" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="104"/>
-      <c r="C9" s="104"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="104"/>
-      <c r="N9" s="104"/>
-      <c r="O9" s="104"/>
-      <c r="P9" s="104"/>
+      <c r="B9" s="117"/>
+      <c r="C9" s="117"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="117"/>
+      <c r="M9" s="117"/>
+      <c r="N9" s="117"/>
+      <c r="O9" s="117"/>
+      <c r="P9" s="117"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="41"/>
       <c r="S9" s="32"/>
@@ -4401,10 +4401,10 @@
         <f>B8+21</f>
         <v>44137</v>
       </c>
-      <c r="C10" s="125">
+      <c r="C10" s="118">
         <v>1</v>
       </c>
-      <c r="D10" s="128" t="s">
+      <c r="D10" s="121" t="s">
         <v>261</v>
       </c>
       <c r="E10" s="26">
@@ -4454,8 +4454,8 @@
         <f t="shared" ref="B11:B16" si="1">B10+7</f>
         <v>44144</v>
       </c>
-      <c r="C11" s="126"/>
-      <c r="D11" s="129"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="122"/>
       <c r="E11" s="26">
         <v>6</v>
       </c>
@@ -4477,9 +4477,7 @@
       <c r="K11" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="L11" s="82" t="s">
-        <v>340</v>
-      </c>
+      <c r="L11" s="82"/>
       <c r="M11" s="78" t="s">
         <v>270</v>
       </c>
@@ -4505,8 +4503,8 @@
         <f t="shared" si="1"/>
         <v>44151</v>
       </c>
-      <c r="C12" s="126"/>
-      <c r="D12" s="129"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="122"/>
       <c r="E12" s="26">
         <v>6</v>
       </c>
@@ -4551,8 +4549,8 @@
         <f t="shared" si="1"/>
         <v>44158</v>
       </c>
-      <c r="C13" s="126"/>
-      <c r="D13" s="129"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="122"/>
       <c r="E13" s="26">
         <v>7</v>
       </c>
@@ -4574,8 +4572,8 @@
       <c r="K13" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="L13" s="5" t="s">
-        <v>346</v>
+      <c r="L13" s="82" t="s">
+        <v>340</v>
       </c>
       <c r="M13" s="78" t="s">
         <v>269</v>
@@ -4604,8 +4602,8 @@
         <f t="shared" si="1"/>
         <v>44165</v>
       </c>
-      <c r="C14" s="126"/>
-      <c r="D14" s="129"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="122"/>
       <c r="E14" s="26">
         <v>7</v>
       </c>
@@ -4652,8 +4650,8 @@
         <f t="shared" si="1"/>
         <v>44172</v>
       </c>
-      <c r="C15" s="126"/>
-      <c r="D15" s="129"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="122"/>
       <c r="E15" s="26">
         <v>8</v>
       </c>
@@ -4675,7 +4673,9 @@
       <c r="K15" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="L15" s="5"/>
+      <c r="L15" s="5" t="s">
+        <v>346</v>
+      </c>
       <c r="M15" s="83" t="s">
         <v>266</v>
       </c>
@@ -4705,8 +4705,8 @@
         <f t="shared" si="1"/>
         <v>44179</v>
       </c>
-      <c r="C16" s="127"/>
-      <c r="D16" s="130"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="123"/>
       <c r="E16" s="26">
         <v>8</v>
       </c>
@@ -4747,24 +4747,24 @@
       <c r="X16" s="75"/>
     </row>
     <row r="17" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="103" t="s">
+      <c r="A17" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="104"/>
-      <c r="C17" s="104"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="104"/>
-      <c r="J17" s="104"/>
-      <c r="K17" s="104"/>
-      <c r="L17" s="104"/>
-      <c r="M17" s="104"/>
-      <c r="N17" s="104"/>
-      <c r="O17" s="104"/>
-      <c r="P17" s="104"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="117"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="117"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="117"/>
+      <c r="K17" s="117"/>
+      <c r="L17" s="117"/>
+      <c r="M17" s="117"/>
+      <c r="N17" s="117"/>
+      <c r="O17" s="117"/>
+      <c r="P17" s="117"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="41"/>
       <c r="S17" s="32"/>
@@ -4780,10 +4780,10 @@
         <f>B16+21</f>
         <v>44200</v>
       </c>
-      <c r="C18" s="119">
+      <c r="C18" s="110">
         <v>2</v>
       </c>
-      <c r="D18" s="122" t="s">
+      <c r="D18" s="113" t="s">
         <v>184</v>
       </c>
       <c r="E18" s="28">
@@ -4837,8 +4837,8 @@
         <f>B18+7</f>
         <v>44207</v>
       </c>
-      <c r="C19" s="120"/>
-      <c r="D19" s="123"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="114"/>
       <c r="E19" s="28">
         <v>1</v>
       </c>
@@ -4886,8 +4886,8 @@
         <f t="shared" ref="B20:B40" si="2">B19+7</f>
         <v>44214</v>
       </c>
-      <c r="C20" s="120"/>
-      <c r="D20" s="123"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="114"/>
       <c r="E20" s="28">
         <v>2</v>
       </c>
@@ -4939,8 +4939,8 @@
         <f>B20+7</f>
         <v>44221</v>
       </c>
-      <c r="C21" s="121"/>
-      <c r="D21" s="124"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="115"/>
       <c r="E21" s="28">
         <v>2</v>
       </c>
@@ -5038,24 +5038,24 @@
       <c r="X22" s="75"/>
     </row>
     <row r="23" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="103" t="s">
+      <c r="A23" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="104"/>
-      <c r="C23" s="104"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="104"/>
-      <c r="I23" s="104"/>
-      <c r="J23" s="104"/>
-      <c r="K23" s="104"/>
-      <c r="L23" s="104"/>
-      <c r="M23" s="104"/>
-      <c r="N23" s="104"/>
-      <c r="O23" s="104"/>
-      <c r="P23" s="104"/>
+      <c r="B23" s="117"/>
+      <c r="C23" s="117"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="117"/>
+      <c r="I23" s="117"/>
+      <c r="J23" s="117"/>
+      <c r="K23" s="117"/>
+      <c r="L23" s="117"/>
+      <c r="M23" s="117"/>
+      <c r="N23" s="117"/>
+      <c r="O23" s="117"/>
+      <c r="P23" s="117"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="50"/>
       <c r="S23" s="32"/>
@@ -5071,10 +5071,10 @@
         <f>B22+21</f>
         <v>44249</v>
       </c>
-      <c r="C24" s="105">
+      <c r="C24" s="124">
         <v>3</v>
       </c>
-      <c r="D24" s="108" t="s">
+      <c r="D24" s="127" t="s">
         <v>60</v>
       </c>
       <c r="E24" s="35">
@@ -5125,8 +5125,8 @@
         <f>B24+7</f>
         <v>44256</v>
       </c>
-      <c r="C25" s="106"/>
-      <c r="D25" s="109"/>
+      <c r="C25" s="125"/>
+      <c r="D25" s="128"/>
       <c r="E25" s="34">
         <v>2</v>
       </c>
@@ -5171,8 +5171,8 @@
         <f>B25+7</f>
         <v>44263</v>
       </c>
-      <c r="C26" s="106"/>
-      <c r="D26" s="109"/>
+      <c r="C26" s="125"/>
+      <c r="D26" s="128"/>
       <c r="E26" s="29">
         <v>3</v>
       </c>
@@ -5222,8 +5222,8 @@
         <f t="shared" si="2"/>
         <v>44270</v>
       </c>
-      <c r="C27" s="106"/>
-      <c r="D27" s="109"/>
+      <c r="C27" s="125"/>
+      <c r="D27" s="128"/>
       <c r="E27" s="35">
         <v>3</v>
       </c>
@@ -5270,8 +5270,8 @@
         <f t="shared" si="2"/>
         <v>44277</v>
       </c>
-      <c r="C28" s="106"/>
-      <c r="D28" s="109"/>
+      <c r="C28" s="125"/>
+      <c r="D28" s="128"/>
       <c r="E28" s="29">
         <v>4</v>
       </c>
@@ -5321,8 +5321,8 @@
         <f t="shared" si="2"/>
         <v>44284</v>
       </c>
-      <c r="C29" s="107"/>
-      <c r="D29" s="110"/>
+      <c r="C29" s="126"/>
+      <c r="D29" s="129"/>
       <c r="E29" s="35">
         <v>4</v>
       </c>
@@ -5418,24 +5418,24 @@
       <c r="X30" s="75"/>
     </row>
     <row r="31" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="111" t="s">
+      <c r="A31" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="112"/>
-      <c r="C31" s="112"/>
-      <c r="D31" s="112"/>
-      <c r="E31" s="112"/>
-      <c r="F31" s="112"/>
-      <c r="G31" s="112"/>
-      <c r="H31" s="112"/>
-      <c r="I31" s="112"/>
-      <c r="J31" s="112"/>
-      <c r="K31" s="112"/>
-      <c r="L31" s="112"/>
-      <c r="M31" s="112"/>
-      <c r="N31" s="112"/>
-      <c r="O31" s="112"/>
-      <c r="P31" s="112"/>
+      <c r="B31" s="104"/>
+      <c r="C31" s="104"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="104"/>
+      <c r="I31" s="104"/>
+      <c r="J31" s="104"/>
+      <c r="K31" s="104"/>
+      <c r="L31" s="104"/>
+      <c r="M31" s="104"/>
+      <c r="N31" s="104"/>
+      <c r="O31" s="104"/>
+      <c r="P31" s="104"/>
       <c r="Q31" s="47"/>
       <c r="R31" s="51"/>
       <c r="S31" s="32"/>
@@ -5451,10 +5451,10 @@
         <f>B30+21</f>
         <v>44312</v>
       </c>
-      <c r="C32" s="113">
+      <c r="C32" s="130">
         <v>4</v>
       </c>
-      <c r="D32" s="116" t="s">
+      <c r="D32" s="133" t="s">
         <v>43</v>
       </c>
       <c r="E32" s="30">
@@ -5508,8 +5508,8 @@
         <f>B32+7</f>
         <v>44319</v>
       </c>
-      <c r="C33" s="114"/>
-      <c r="D33" s="117"/>
+      <c r="C33" s="131"/>
+      <c r="D33" s="134"/>
       <c r="E33" s="30">
         <v>2</v>
       </c>
@@ -5554,8 +5554,8 @@
         <f t="shared" si="2"/>
         <v>44326</v>
       </c>
-      <c r="C34" s="114"/>
-      <c r="D34" s="117"/>
+      <c r="C34" s="131"/>
+      <c r="D34" s="134"/>
       <c r="E34" s="30">
         <v>3</v>
       </c>
@@ -5601,8 +5601,8 @@
         <f t="shared" si="2"/>
         <v>44333</v>
       </c>
-      <c r="C35" s="115"/>
-      <c r="D35" s="118"/>
+      <c r="C35" s="132"/>
+      <c r="D35" s="135"/>
       <c r="E35" s="30">
         <v>4</v>
       </c>
@@ -5646,10 +5646,10 @@
         <f t="shared" si="2"/>
         <v>44340</v>
       </c>
-      <c r="C36" s="133">
+      <c r="C36" s="107">
         <v>5</v>
       </c>
-      <c r="D36" s="131" t="s">
+      <c r="D36" s="105" t="s">
         <v>49</v>
       </c>
       <c r="E36" s="31">
@@ -5689,8 +5689,8 @@
         <f t="shared" si="2"/>
         <v>44347</v>
       </c>
-      <c r="C37" s="134"/>
-      <c r="D37" s="132"/>
+      <c r="C37" s="108"/>
+      <c r="D37" s="106"/>
       <c r="E37" s="31">
         <v>1</v>
       </c>
@@ -5730,8 +5730,8 @@
         <f t="shared" si="2"/>
         <v>44354</v>
       </c>
-      <c r="C38" s="134"/>
-      <c r="D38" s="132"/>
+      <c r="C38" s="108"/>
+      <c r="D38" s="106"/>
       <c r="E38" s="31">
         <v>1</v>
       </c>
@@ -5769,8 +5769,8 @@
         <f t="shared" si="2"/>
         <v>44361</v>
       </c>
-      <c r="C39" s="134"/>
-      <c r="D39" s="132"/>
+      <c r="C39" s="108"/>
+      <c r="D39" s="106"/>
       <c r="E39" s="31">
         <v>1</v>
       </c>
@@ -5808,8 +5808,8 @@
         <f t="shared" si="2"/>
         <v>44368</v>
       </c>
-      <c r="C40" s="135"/>
-      <c r="D40" s="132"/>
+      <c r="C40" s="109"/>
+      <c r="D40" s="106"/>
       <c r="E40" s="31">
         <v>1</v>
       </c>
@@ -5838,24 +5838,24 @@
       <c r="X40" s="75"/>
     </row>
     <row r="41" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="111" t="s">
+      <c r="A41" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="112"/>
-      <c r="C41" s="112"/>
-      <c r="D41" s="112"/>
-      <c r="E41" s="112"/>
-      <c r="F41" s="112"/>
-      <c r="G41" s="112"/>
-      <c r="H41" s="112"/>
-      <c r="I41" s="112"/>
-      <c r="J41" s="112"/>
-      <c r="K41" s="112"/>
-      <c r="L41" s="112"/>
-      <c r="M41" s="112"/>
-      <c r="N41" s="112"/>
-      <c r="O41" s="112"/>
-      <c r="P41" s="112"/>
+      <c r="B41" s="104"/>
+      <c r="C41" s="104"/>
+      <c r="D41" s="104"/>
+      <c r="E41" s="104"/>
+      <c r="F41" s="104"/>
+      <c r="G41" s="104"/>
+      <c r="H41" s="104"/>
+      <c r="I41" s="104"/>
+      <c r="J41" s="104"/>
+      <c r="K41" s="104"/>
+      <c r="L41" s="104"/>
+      <c r="M41" s="104"/>
+      <c r="N41" s="104"/>
+      <c r="O41" s="104"/>
+      <c r="P41" s="104"/>
       <c r="Q41" s="47"/>
       <c r="R41" s="51"/>
       <c r="V41" s="70"/>
@@ -5924,17 +5924,17 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A41:P41"/>
-    <mergeCell ref="D36:D40"/>
-    <mergeCell ref="C36:C40"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D18:D21"/>
     <mergeCell ref="A9:P9"/>
     <mergeCell ref="A17:P17"/>
     <mergeCell ref="C2:C8"/>
     <mergeCell ref="D2:D8"/>
     <mergeCell ref="D10:D16"/>
     <mergeCell ref="C10:C16"/>
+    <mergeCell ref="A41:P41"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D21"/>
     <mergeCell ref="A23:P23"/>
     <mergeCell ref="C24:C29"/>
     <mergeCell ref="D24:D29"/>

--- a/progression_2020_2021_IPT_MPSI.xlsx
+++ b/progression_2020_2021_IPT_MPSI.xlsx
@@ -22,7 +22,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Cycles MPSI IPT'!$A$3:$B$7</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Semanier MPSI IPT 2019-2020'!$A$18:$H$20</definedName>
   </definedNames>
-  <calcPr calcId="150001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -2571,6 +2571,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2608,30 +2632,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3909,8 +3909,8 @@
   </sheetPr>
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4001,10 +4001,10 @@
       <c r="B2" s="9">
         <v>44074</v>
       </c>
-      <c r="C2" s="118">
+      <c r="C2" s="105">
         <v>1</v>
       </c>
-      <c r="D2" s="121" t="s">
+      <c r="D2" s="108" t="s">
         <v>261</v>
       </c>
       <c r="E2" s="26">
@@ -4058,8 +4058,8 @@
         <f>B2+7</f>
         <v>44081</v>
       </c>
-      <c r="C3" s="119"/>
-      <c r="D3" s="122"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="109"/>
       <c r="E3" s="26">
         <v>2</v>
       </c>
@@ -4110,8 +4110,8 @@
         <f>B3+7</f>
         <v>44088</v>
       </c>
-      <c r="C4" s="119"/>
-      <c r="D4" s="122"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="109"/>
       <c r="E4" s="26">
         <v>2</v>
       </c>
@@ -4163,8 +4163,8 @@
         <f t="shared" ref="B5:B8" si="0">B4+7</f>
         <v>44095</v>
       </c>
-      <c r="C5" s="119"/>
-      <c r="D5" s="122"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="109"/>
       <c r="E5" s="26">
         <v>3</v>
       </c>
@@ -4216,8 +4216,8 @@
         <f>B5+7</f>
         <v>44102</v>
       </c>
-      <c r="C6" s="119"/>
-      <c r="D6" s="122"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="109"/>
       <c r="E6" s="26">
         <v>4</v>
       </c>
@@ -4271,8 +4271,8 @@
         <f t="shared" si="0"/>
         <v>44109</v>
       </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="122"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="109"/>
       <c r="E7" s="26">
         <v>4</v>
       </c>
@@ -4320,8 +4320,8 @@
         <f t="shared" si="0"/>
         <v>44116</v>
       </c>
-      <c r="C8" s="120"/>
-      <c r="D8" s="123"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="110"/>
       <c r="E8" s="26">
         <v>5</v>
       </c>
@@ -4368,24 +4368,24 @@
       <c r="X8" s="75"/>
     </row>
     <row r="9" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="117"/>
-      <c r="C9" s="117"/>
-      <c r="D9" s="117"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="117"/>
-      <c r="M9" s="117"/>
-      <c r="N9" s="117"/>
-      <c r="O9" s="117"/>
-      <c r="P9" s="117"/>
+      <c r="B9" s="104"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="104"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="104"/>
+      <c r="P9" s="104"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="41"/>
       <c r="S9" s="32"/>
@@ -4401,10 +4401,10 @@
         <f>B8+21</f>
         <v>44137</v>
       </c>
-      <c r="C10" s="118">
+      <c r="C10" s="105">
         <v>1</v>
       </c>
-      <c r="D10" s="121" t="s">
+      <c r="D10" s="108" t="s">
         <v>261</v>
       </c>
       <c r="E10" s="26">
@@ -4454,8 +4454,8 @@
         <f t="shared" ref="B11:B16" si="1">B10+7</f>
         <v>44144</v>
       </c>
-      <c r="C11" s="119"/>
-      <c r="D11" s="122"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="109"/>
       <c r="E11" s="26">
         <v>6</v>
       </c>
@@ -4503,8 +4503,8 @@
         <f t="shared" si="1"/>
         <v>44151</v>
       </c>
-      <c r="C12" s="119"/>
-      <c r="D12" s="122"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="109"/>
       <c r="E12" s="26">
         <v>6</v>
       </c>
@@ -4549,8 +4549,8 @@
         <f t="shared" si="1"/>
         <v>44158</v>
       </c>
-      <c r="C13" s="119"/>
-      <c r="D13" s="122"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="109"/>
       <c r="E13" s="26">
         <v>7</v>
       </c>
@@ -4602,8 +4602,8 @@
         <f t="shared" si="1"/>
         <v>44165</v>
       </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="122"/>
+      <c r="C14" s="106"/>
+      <c r="D14" s="109"/>
       <c r="E14" s="26">
         <v>7</v>
       </c>
@@ -4650,8 +4650,8 @@
         <f t="shared" si="1"/>
         <v>44172</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="122"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="109"/>
       <c r="E15" s="26">
         <v>8</v>
       </c>
@@ -4705,8 +4705,8 @@
         <f t="shared" si="1"/>
         <v>44179</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="123"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="110"/>
       <c r="E16" s="26">
         <v>8</v>
       </c>
@@ -4747,24 +4747,24 @@
       <c r="X16" s="75"/>
     </row>
     <row r="17" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="116" t="s">
+      <c r="A17" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="117"/>
-      <c r="C17" s="117"/>
-      <c r="D17" s="117"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="117"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="117"/>
-      <c r="I17" s="117"/>
-      <c r="J17" s="117"/>
-      <c r="K17" s="117"/>
-      <c r="L17" s="117"/>
-      <c r="M17" s="117"/>
-      <c r="N17" s="117"/>
-      <c r="O17" s="117"/>
-      <c r="P17" s="117"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="104"/>
+      <c r="J17" s="104"/>
+      <c r="K17" s="104"/>
+      <c r="L17" s="104"/>
+      <c r="M17" s="104"/>
+      <c r="N17" s="104"/>
+      <c r="O17" s="104"/>
+      <c r="P17" s="104"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="41"/>
       <c r="S17" s="32"/>
@@ -4780,10 +4780,10 @@
         <f>B16+21</f>
         <v>44200</v>
       </c>
-      <c r="C18" s="110">
+      <c r="C18" s="118">
         <v>2</v>
       </c>
-      <c r="D18" s="113" t="s">
+      <c r="D18" s="121" t="s">
         <v>184</v>
       </c>
       <c r="E18" s="28">
@@ -4837,8 +4837,8 @@
         <f>B18+7</f>
         <v>44207</v>
       </c>
-      <c r="C19" s="111"/>
-      <c r="D19" s="114"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="122"/>
       <c r="E19" s="28">
         <v>1</v>
       </c>
@@ -4886,8 +4886,8 @@
         <f t="shared" ref="B20:B40" si="2">B19+7</f>
         <v>44214</v>
       </c>
-      <c r="C20" s="111"/>
-      <c r="D20" s="114"/>
+      <c r="C20" s="119"/>
+      <c r="D20" s="122"/>
       <c r="E20" s="28">
         <v>2</v>
       </c>
@@ -4939,8 +4939,8 @@
         <f>B20+7</f>
         <v>44221</v>
       </c>
-      <c r="C21" s="112"/>
-      <c r="D21" s="115"/>
+      <c r="C21" s="120"/>
+      <c r="D21" s="123"/>
       <c r="E21" s="28">
         <v>2</v>
       </c>
@@ -5038,24 +5038,24 @@
       <c r="X22" s="75"/>
     </row>
     <row r="23" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="116" t="s">
+      <c r="A23" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="117"/>
-      <c r="C23" s="117"/>
-      <c r="D23" s="117"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="117"/>
-      <c r="I23" s="117"/>
-      <c r="J23" s="117"/>
-      <c r="K23" s="117"/>
-      <c r="L23" s="117"/>
-      <c r="M23" s="117"/>
-      <c r="N23" s="117"/>
-      <c r="O23" s="117"/>
-      <c r="P23" s="117"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="104"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="104"/>
+      <c r="H23" s="104"/>
+      <c r="I23" s="104"/>
+      <c r="J23" s="104"/>
+      <c r="K23" s="104"/>
+      <c r="L23" s="104"/>
+      <c r="M23" s="104"/>
+      <c r="N23" s="104"/>
+      <c r="O23" s="104"/>
+      <c r="P23" s="104"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="50"/>
       <c r="S23" s="32"/>
@@ -5418,24 +5418,24 @@
       <c r="X30" s="75"/>
     </row>
     <row r="31" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="103" t="s">
+      <c r="A31" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="104"/>
-      <c r="C31" s="104"/>
-      <c r="D31" s="104"/>
-      <c r="E31" s="104"/>
-      <c r="F31" s="104"/>
-      <c r="G31" s="104"/>
-      <c r="H31" s="104"/>
-      <c r="I31" s="104"/>
-      <c r="J31" s="104"/>
-      <c r="K31" s="104"/>
-      <c r="L31" s="104"/>
-      <c r="M31" s="104"/>
-      <c r="N31" s="104"/>
-      <c r="O31" s="104"/>
-      <c r="P31" s="104"/>
+      <c r="B31" s="112"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="112"/>
+      <c r="F31" s="112"/>
+      <c r="G31" s="112"/>
+      <c r="H31" s="112"/>
+      <c r="I31" s="112"/>
+      <c r="J31" s="112"/>
+      <c r="K31" s="112"/>
+      <c r="L31" s="112"/>
+      <c r="M31" s="112"/>
+      <c r="N31" s="112"/>
+      <c r="O31" s="112"/>
+      <c r="P31" s="112"/>
       <c r="Q31" s="47"/>
       <c r="R31" s="51"/>
       <c r="S31" s="32"/>
@@ -5646,10 +5646,10 @@
         <f t="shared" si="2"/>
         <v>44340</v>
       </c>
-      <c r="C36" s="107">
+      <c r="C36" s="115">
         <v>5</v>
       </c>
-      <c r="D36" s="105" t="s">
+      <c r="D36" s="113" t="s">
         <v>49</v>
       </c>
       <c r="E36" s="31">
@@ -5689,8 +5689,8 @@
         <f t="shared" si="2"/>
         <v>44347</v>
       </c>
-      <c r="C37" s="108"/>
-      <c r="D37" s="106"/>
+      <c r="C37" s="116"/>
+      <c r="D37" s="114"/>
       <c r="E37" s="31">
         <v>1</v>
       </c>
@@ -5730,8 +5730,8 @@
         <f t="shared" si="2"/>
         <v>44354</v>
       </c>
-      <c r="C38" s="108"/>
-      <c r="D38" s="106"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="114"/>
       <c r="E38" s="31">
         <v>1</v>
       </c>
@@ -5769,8 +5769,8 @@
         <f t="shared" si="2"/>
         <v>44361</v>
       </c>
-      <c r="C39" s="108"/>
-      <c r="D39" s="106"/>
+      <c r="C39" s="116"/>
+      <c r="D39" s="114"/>
       <c r="E39" s="31">
         <v>1</v>
       </c>
@@ -5808,8 +5808,8 @@
         <f t="shared" si="2"/>
         <v>44368</v>
       </c>
-      <c r="C40" s="109"/>
-      <c r="D40" s="106"/>
+      <c r="C40" s="117"/>
+      <c r="D40" s="114"/>
       <c r="E40" s="31">
         <v>1</v>
       </c>
@@ -5838,24 +5838,24 @@
       <c r="X40" s="75"/>
     </row>
     <row r="41" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="103" t="s">
+      <c r="A41" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="104"/>
-      <c r="C41" s="104"/>
-      <c r="D41" s="104"/>
-      <c r="E41" s="104"/>
-      <c r="F41" s="104"/>
-      <c r="G41" s="104"/>
-      <c r="H41" s="104"/>
-      <c r="I41" s="104"/>
-      <c r="J41" s="104"/>
-      <c r="K41" s="104"/>
-      <c r="L41" s="104"/>
-      <c r="M41" s="104"/>
-      <c r="N41" s="104"/>
-      <c r="O41" s="104"/>
-      <c r="P41" s="104"/>
+      <c r="B41" s="112"/>
+      <c r="C41" s="112"/>
+      <c r="D41" s="112"/>
+      <c r="E41" s="112"/>
+      <c r="F41" s="112"/>
+      <c r="G41" s="112"/>
+      <c r="H41" s="112"/>
+      <c r="I41" s="112"/>
+      <c r="J41" s="112"/>
+      <c r="K41" s="112"/>
+      <c r="L41" s="112"/>
+      <c r="M41" s="112"/>
+      <c r="N41" s="112"/>
+      <c r="O41" s="112"/>
+      <c r="P41" s="112"/>
       <c r="Q41" s="47"/>
       <c r="R41" s="51"/>
       <c r="V41" s="70"/>
@@ -5924,12 +5924,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A9:P9"/>
-    <mergeCell ref="A17:P17"/>
-    <mergeCell ref="C2:C8"/>
-    <mergeCell ref="D2:D8"/>
-    <mergeCell ref="D10:D16"/>
-    <mergeCell ref="C10:C16"/>
     <mergeCell ref="A41:P41"/>
     <mergeCell ref="D36:D40"/>
     <mergeCell ref="C36:C40"/>
@@ -5941,6 +5935,12 @@
     <mergeCell ref="A31:P31"/>
     <mergeCell ref="C32:C35"/>
     <mergeCell ref="D32:D35"/>
+    <mergeCell ref="A9:P9"/>
+    <mergeCell ref="A17:P17"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="D2:D8"/>
+    <mergeCell ref="D10:D16"/>
+    <mergeCell ref="C10:C16"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/progression_2020_2021_IPT_MPSI.xlsx
+++ b/progression_2020_2021_IPT_MPSI.xlsx
@@ -2571,12 +2571,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2593,81 +2668,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3909,8 +3909,8 @@
   </sheetPr>
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="E25" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4001,10 +4001,10 @@
       <c r="B2" s="9">
         <v>44074</v>
       </c>
-      <c r="C2" s="105">
+      <c r="C2" s="130">
         <v>1</v>
       </c>
-      <c r="D2" s="108" t="s">
+      <c r="D2" s="133" t="s">
         <v>261</v>
       </c>
       <c r="E2" s="26">
@@ -4058,8 +4058,8 @@
         <f>B2+7</f>
         <v>44081</v>
       </c>
-      <c r="C3" s="106"/>
-      <c r="D3" s="109"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="134"/>
       <c r="E3" s="26">
         <v>2</v>
       </c>
@@ -4110,8 +4110,8 @@
         <f>B3+7</f>
         <v>44088</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="109"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="134"/>
       <c r="E4" s="26">
         <v>2</v>
       </c>
@@ -4163,8 +4163,8 @@
         <f t="shared" ref="B5:B8" si="0">B4+7</f>
         <v>44095</v>
       </c>
-      <c r="C5" s="106"/>
-      <c r="D5" s="109"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="134"/>
       <c r="E5" s="26">
         <v>3</v>
       </c>
@@ -4216,8 +4216,8 @@
         <f>B5+7</f>
         <v>44102</v>
       </c>
-      <c r="C6" s="106"/>
-      <c r="D6" s="109"/>
+      <c r="C6" s="131"/>
+      <c r="D6" s="134"/>
       <c r="E6" s="26">
         <v>4</v>
       </c>
@@ -4271,8 +4271,8 @@
         <f t="shared" si="0"/>
         <v>44109</v>
       </c>
-      <c r="C7" s="106"/>
-      <c r="D7" s="109"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="134"/>
       <c r="E7" s="26">
         <v>4</v>
       </c>
@@ -4320,8 +4320,8 @@
         <f t="shared" si="0"/>
         <v>44116</v>
       </c>
-      <c r="C8" s="107"/>
-      <c r="D8" s="110"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="135"/>
       <c r="E8" s="26">
         <v>5</v>
       </c>
@@ -4368,24 +4368,24 @@
       <c r="X8" s="75"/>
     </row>
     <row r="9" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="103" t="s">
+      <c r="A9" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="104"/>
-      <c r="C9" s="104"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="104"/>
-      <c r="N9" s="104"/>
-      <c r="O9" s="104"/>
-      <c r="P9" s="104"/>
+      <c r="B9" s="117"/>
+      <c r="C9" s="117"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="117"/>
+      <c r="M9" s="117"/>
+      <c r="N9" s="117"/>
+      <c r="O9" s="117"/>
+      <c r="P9" s="117"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="41"/>
       <c r="S9" s="32"/>
@@ -4401,10 +4401,10 @@
         <f>B8+21</f>
         <v>44137</v>
       </c>
-      <c r="C10" s="105">
+      <c r="C10" s="130">
         <v>1</v>
       </c>
-      <c r="D10" s="108" t="s">
+      <c r="D10" s="133" t="s">
         <v>261</v>
       </c>
       <c r="E10" s="26">
@@ -4454,8 +4454,8 @@
         <f t="shared" ref="B11:B16" si="1">B10+7</f>
         <v>44144</v>
       </c>
-      <c r="C11" s="106"/>
-      <c r="D11" s="109"/>
+      <c r="C11" s="131"/>
+      <c r="D11" s="134"/>
       <c r="E11" s="26">
         <v>6</v>
       </c>
@@ -4503,8 +4503,8 @@
         <f t="shared" si="1"/>
         <v>44151</v>
       </c>
-      <c r="C12" s="106"/>
-      <c r="D12" s="109"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="134"/>
       <c r="E12" s="26">
         <v>6</v>
       </c>
@@ -4549,8 +4549,8 @@
         <f t="shared" si="1"/>
         <v>44158</v>
       </c>
-      <c r="C13" s="106"/>
-      <c r="D13" s="109"/>
+      <c r="C13" s="131"/>
+      <c r="D13" s="134"/>
       <c r="E13" s="26">
         <v>7</v>
       </c>
@@ -4602,8 +4602,8 @@
         <f t="shared" si="1"/>
         <v>44165</v>
       </c>
-      <c r="C14" s="106"/>
-      <c r="D14" s="109"/>
+      <c r="C14" s="131"/>
+      <c r="D14" s="134"/>
       <c r="E14" s="26">
         <v>7</v>
       </c>
@@ -4650,8 +4650,8 @@
         <f t="shared" si="1"/>
         <v>44172</v>
       </c>
-      <c r="C15" s="106"/>
-      <c r="D15" s="109"/>
+      <c r="C15" s="131"/>
+      <c r="D15" s="134"/>
       <c r="E15" s="26">
         <v>8</v>
       </c>
@@ -4705,8 +4705,8 @@
         <f t="shared" si="1"/>
         <v>44179</v>
       </c>
-      <c r="C16" s="107"/>
-      <c r="D16" s="110"/>
+      <c r="C16" s="132"/>
+      <c r="D16" s="135"/>
       <c r="E16" s="26">
         <v>8</v>
       </c>
@@ -4747,24 +4747,24 @@
       <c r="X16" s="75"/>
     </row>
     <row r="17" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="103" t="s">
+      <c r="A17" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="104"/>
-      <c r="C17" s="104"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="104"/>
-      <c r="J17" s="104"/>
-      <c r="K17" s="104"/>
-      <c r="L17" s="104"/>
-      <c r="M17" s="104"/>
-      <c r="N17" s="104"/>
-      <c r="O17" s="104"/>
-      <c r="P17" s="104"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="117"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="117"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="117"/>
+      <c r="K17" s="117"/>
+      <c r="L17" s="117"/>
+      <c r="M17" s="117"/>
+      <c r="N17" s="117"/>
+      <c r="O17" s="117"/>
+      <c r="P17" s="117"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="41"/>
       <c r="S17" s="32"/>
@@ -4780,10 +4780,10 @@
         <f>B16+21</f>
         <v>44200</v>
       </c>
-      <c r="C18" s="118">
+      <c r="C18" s="110">
         <v>2</v>
       </c>
-      <c r="D18" s="121" t="s">
+      <c r="D18" s="113" t="s">
         <v>184</v>
       </c>
       <c r="E18" s="28">
@@ -4837,8 +4837,8 @@
         <f>B18+7</f>
         <v>44207</v>
       </c>
-      <c r="C19" s="119"/>
-      <c r="D19" s="122"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="114"/>
       <c r="E19" s="28">
         <v>1</v>
       </c>
@@ -4886,8 +4886,8 @@
         <f t="shared" ref="B20:B40" si="2">B19+7</f>
         <v>44214</v>
       </c>
-      <c r="C20" s="119"/>
-      <c r="D20" s="122"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="114"/>
       <c r="E20" s="28">
         <v>2</v>
       </c>
@@ -4939,8 +4939,8 @@
         <f>B20+7</f>
         <v>44221</v>
       </c>
-      <c r="C21" s="120"/>
-      <c r="D21" s="123"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="115"/>
       <c r="E21" s="28">
         <v>2</v>
       </c>
@@ -5038,24 +5038,24 @@
       <c r="X22" s="75"/>
     </row>
     <row r="23" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="103" t="s">
+      <c r="A23" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="104"/>
-      <c r="C23" s="104"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="104"/>
-      <c r="I23" s="104"/>
-      <c r="J23" s="104"/>
-      <c r="K23" s="104"/>
-      <c r="L23" s="104"/>
-      <c r="M23" s="104"/>
-      <c r="N23" s="104"/>
-      <c r="O23" s="104"/>
-      <c r="P23" s="104"/>
+      <c r="B23" s="117"/>
+      <c r="C23" s="117"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="117"/>
+      <c r="I23" s="117"/>
+      <c r="J23" s="117"/>
+      <c r="K23" s="117"/>
+      <c r="L23" s="117"/>
+      <c r="M23" s="117"/>
+      <c r="N23" s="117"/>
+      <c r="O23" s="117"/>
+      <c r="P23" s="117"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="50"/>
       <c r="S23" s="32"/>
@@ -5071,10 +5071,10 @@
         <f>B22+21</f>
         <v>44249</v>
       </c>
-      <c r="C24" s="124">
+      <c r="C24" s="118">
         <v>3</v>
       </c>
-      <c r="D24" s="127" t="s">
+      <c r="D24" s="121" t="s">
         <v>60</v>
       </c>
       <c r="E24" s="35">
@@ -5125,8 +5125,8 @@
         <f>B24+7</f>
         <v>44256</v>
       </c>
-      <c r="C25" s="125"/>
-      <c r="D25" s="128"/>
+      <c r="C25" s="119"/>
+      <c r="D25" s="122"/>
       <c r="E25" s="34">
         <v>2</v>
       </c>
@@ -5171,8 +5171,8 @@
         <f>B25+7</f>
         <v>44263</v>
       </c>
-      <c r="C26" s="125"/>
-      <c r="D26" s="128"/>
+      <c r="C26" s="119"/>
+      <c r="D26" s="122"/>
       <c r="E26" s="29">
         <v>3</v>
       </c>
@@ -5222,8 +5222,8 @@
         <f t="shared" si="2"/>
         <v>44270</v>
       </c>
-      <c r="C27" s="125"/>
-      <c r="D27" s="128"/>
+      <c r="C27" s="119"/>
+      <c r="D27" s="122"/>
       <c r="E27" s="35">
         <v>3</v>
       </c>
@@ -5270,8 +5270,8 @@
         <f t="shared" si="2"/>
         <v>44277</v>
       </c>
-      <c r="C28" s="125"/>
-      <c r="D28" s="128"/>
+      <c r="C28" s="119"/>
+      <c r="D28" s="122"/>
       <c r="E28" s="29">
         <v>4</v>
       </c>
@@ -5321,8 +5321,8 @@
         <f t="shared" si="2"/>
         <v>44284</v>
       </c>
-      <c r="C29" s="126"/>
-      <c r="D29" s="129"/>
+      <c r="C29" s="120"/>
+      <c r="D29" s="123"/>
       <c r="E29" s="35">
         <v>4</v>
       </c>
@@ -5418,24 +5418,24 @@
       <c r="X30" s="75"/>
     </row>
     <row r="31" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="111" t="s">
+      <c r="A31" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="112"/>
-      <c r="C31" s="112"/>
-      <c r="D31" s="112"/>
-      <c r="E31" s="112"/>
-      <c r="F31" s="112"/>
-      <c r="G31" s="112"/>
-      <c r="H31" s="112"/>
-      <c r="I31" s="112"/>
-      <c r="J31" s="112"/>
-      <c r="K31" s="112"/>
-      <c r="L31" s="112"/>
-      <c r="M31" s="112"/>
-      <c r="N31" s="112"/>
-      <c r="O31" s="112"/>
-      <c r="P31" s="112"/>
+      <c r="B31" s="104"/>
+      <c r="C31" s="104"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="104"/>
+      <c r="I31" s="104"/>
+      <c r="J31" s="104"/>
+      <c r="K31" s="104"/>
+      <c r="L31" s="104"/>
+      <c r="M31" s="104"/>
+      <c r="N31" s="104"/>
+      <c r="O31" s="104"/>
+      <c r="P31" s="104"/>
       <c r="Q31" s="47"/>
       <c r="R31" s="51"/>
       <c r="S31" s="32"/>
@@ -5451,10 +5451,10 @@
         <f>B30+21</f>
         <v>44312</v>
       </c>
-      <c r="C32" s="130">
+      <c r="C32" s="124">
         <v>4</v>
       </c>
-      <c r="D32" s="133" t="s">
+      <c r="D32" s="127" t="s">
         <v>43</v>
       </c>
       <c r="E32" s="30">
@@ -5508,8 +5508,8 @@
         <f>B32+7</f>
         <v>44319</v>
       </c>
-      <c r="C33" s="131"/>
-      <c r="D33" s="134"/>
+      <c r="C33" s="125"/>
+      <c r="D33" s="128"/>
       <c r="E33" s="30">
         <v>2</v>
       </c>
@@ -5554,8 +5554,8 @@
         <f t="shared" si="2"/>
         <v>44326</v>
       </c>
-      <c r="C34" s="131"/>
-      <c r="D34" s="134"/>
+      <c r="C34" s="125"/>
+      <c r="D34" s="128"/>
       <c r="E34" s="30">
         <v>3</v>
       </c>
@@ -5601,8 +5601,8 @@
         <f t="shared" si="2"/>
         <v>44333</v>
       </c>
-      <c r="C35" s="132"/>
-      <c r="D35" s="135"/>
+      <c r="C35" s="126"/>
+      <c r="D35" s="129"/>
       <c r="E35" s="30">
         <v>4</v>
       </c>
@@ -5646,10 +5646,10 @@
         <f t="shared" si="2"/>
         <v>44340</v>
       </c>
-      <c r="C36" s="115">
+      <c r="C36" s="107">
         <v>5</v>
       </c>
-      <c r="D36" s="113" t="s">
+      <c r="D36" s="105" t="s">
         <v>49</v>
       </c>
       <c r="E36" s="31">
@@ -5689,8 +5689,8 @@
         <f t="shared" si="2"/>
         <v>44347</v>
       </c>
-      <c r="C37" s="116"/>
-      <c r="D37" s="114"/>
+      <c r="C37" s="108"/>
+      <c r="D37" s="106"/>
       <c r="E37" s="31">
         <v>1</v>
       </c>
@@ -5730,8 +5730,8 @@
         <f t="shared" si="2"/>
         <v>44354</v>
       </c>
-      <c r="C38" s="116"/>
-      <c r="D38" s="114"/>
+      <c r="C38" s="108"/>
+      <c r="D38" s="106"/>
       <c r="E38" s="31">
         <v>1</v>
       </c>
@@ -5769,8 +5769,8 @@
         <f t="shared" si="2"/>
         <v>44361</v>
       </c>
-      <c r="C39" s="116"/>
-      <c r="D39" s="114"/>
+      <c r="C39" s="108"/>
+      <c r="D39" s="106"/>
       <c r="E39" s="31">
         <v>1</v>
       </c>
@@ -5808,8 +5808,8 @@
         <f t="shared" si="2"/>
         <v>44368</v>
       </c>
-      <c r="C40" s="117"/>
-      <c r="D40" s="114"/>
+      <c r="C40" s="109"/>
+      <c r="D40" s="106"/>
       <c r="E40" s="31">
         <v>1</v>
       </c>
@@ -5838,24 +5838,24 @@
       <c r="X40" s="75"/>
     </row>
     <row r="41" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="111" t="s">
+      <c r="A41" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="112"/>
-      <c r="C41" s="112"/>
-      <c r="D41" s="112"/>
-      <c r="E41" s="112"/>
-      <c r="F41" s="112"/>
-      <c r="G41" s="112"/>
-      <c r="H41" s="112"/>
-      <c r="I41" s="112"/>
-      <c r="J41" s="112"/>
-      <c r="K41" s="112"/>
-      <c r="L41" s="112"/>
-      <c r="M41" s="112"/>
-      <c r="N41" s="112"/>
-      <c r="O41" s="112"/>
-      <c r="P41" s="112"/>
+      <c r="B41" s="104"/>
+      <c r="C41" s="104"/>
+      <c r="D41" s="104"/>
+      <c r="E41" s="104"/>
+      <c r="F41" s="104"/>
+      <c r="G41" s="104"/>
+      <c r="H41" s="104"/>
+      <c r="I41" s="104"/>
+      <c r="J41" s="104"/>
+      <c r="K41" s="104"/>
+      <c r="L41" s="104"/>
+      <c r="M41" s="104"/>
+      <c r="N41" s="104"/>
+      <c r="O41" s="104"/>
+      <c r="P41" s="104"/>
       <c r="Q41" s="47"/>
       <c r="R41" s="51"/>
       <c r="V41" s="70"/>
@@ -5924,6 +5924,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A9:P9"/>
+    <mergeCell ref="A17:P17"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="D2:D8"/>
+    <mergeCell ref="D10:D16"/>
+    <mergeCell ref="C10:C16"/>
     <mergeCell ref="A41:P41"/>
     <mergeCell ref="D36:D40"/>
     <mergeCell ref="C36:C40"/>
@@ -5935,12 +5941,6 @@
     <mergeCell ref="A31:P31"/>
     <mergeCell ref="C32:C35"/>
     <mergeCell ref="D32:D35"/>
-    <mergeCell ref="A9:P9"/>
-    <mergeCell ref="A17:P17"/>
-    <mergeCell ref="C2:C8"/>
-    <mergeCell ref="D2:D8"/>
-    <mergeCell ref="D10:D16"/>
-    <mergeCell ref="C10:C16"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/progression_2020_2021_IPT_MPSI.xlsx
+++ b/progression_2020_2021_IPT_MPSI.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="377">
   <si>
     <t>Cours</t>
   </si>
@@ -1183,6 +1183,9 @@
   </si>
   <si>
     <t>sql/projet</t>
+  </si>
+  <si>
+    <t>problemes/puissance_velo</t>
   </si>
 </sst>
 </file>
@@ -2277,7 +2280,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2562,6 +2565,9 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2571,6 +2577,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2610,12 +2640,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2650,24 +2674,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3696,7 +3702,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="48" x14ac:dyDescent="0.15">
-      <c r="A2" s="100">
+      <c r="A2" s="101">
         <v>1</v>
       </c>
       <c r="B2" s="85" t="s">
@@ -3710,7 +3716,7 @@
       <c r="F2" s="86"/>
     </row>
     <row r="3" spans="1:8" ht="78" x14ac:dyDescent="0.15">
-      <c r="A3" s="101"/>
+      <c r="A3" s="102"/>
       <c r="B3" s="3" t="s">
         <v>332</v>
       </c>
@@ -3722,7 +3728,7 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="101"/>
+      <c r="A4" s="102"/>
       <c r="B4" s="3" t="s">
         <v>336</v>
       </c>
@@ -3734,7 +3740,7 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="101"/>
+      <c r="A5" s="102"/>
       <c r="B5" s="3" t="s">
         <v>333</v>
       </c>
@@ -3746,7 +3752,7 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:8" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="102"/>
+      <c r="A6" s="103"/>
       <c r="B6" s="87" t="s">
         <v>334</v>
       </c>
@@ -3758,7 +3764,7 @@
       <c r="F6" s="88"/>
     </row>
     <row r="7" spans="1:8" ht="48" x14ac:dyDescent="0.15">
-      <c r="A7" s="100">
+      <c r="A7" s="101">
         <v>2</v>
       </c>
       <c r="B7" s="89" t="s">
@@ -3772,7 +3778,7 @@
       <c r="F7" s="86"/>
     </row>
     <row r="8" spans="1:8" ht="39" x14ac:dyDescent="0.15">
-      <c r="A8" s="101"/>
+      <c r="A8" s="102"/>
       <c r="B8" s="90" t="s">
         <v>332</v>
       </c>
@@ -3784,7 +3790,7 @@
       <c r="F8" s="90"/>
     </row>
     <row r="9" spans="1:8" ht="26" x14ac:dyDescent="0.15">
-      <c r="A9" s="101"/>
+      <c r="A9" s="102"/>
       <c r="B9" s="90" t="s">
         <v>336</v>
       </c>
@@ -3799,7 +3805,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="101"/>
+      <c r="A10" s="102"/>
       <c r="B10" s="90" t="s">
         <v>333</v>
       </c>
@@ -3811,7 +3817,7 @@
       <c r="F10" s="90"/>
     </row>
     <row r="11" spans="1:8" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="102"/>
+      <c r="A11" s="103"/>
       <c r="B11" s="91" t="s">
         <v>334</v>
       </c>
@@ -3823,7 +3829,7 @@
       <c r="F11" s="88"/>
     </row>
     <row r="12" spans="1:8" ht="48" x14ac:dyDescent="0.15">
-      <c r="A12" s="100">
+      <c r="A12" s="101">
         <v>3</v>
       </c>
       <c r="B12" s="92" t="s">
@@ -3837,7 +3843,7 @@
       <c r="F12" s="86"/>
     </row>
     <row r="13" spans="1:8" ht="26" x14ac:dyDescent="0.15">
-      <c r="A13" s="101"/>
+      <c r="A13" s="102"/>
       <c r="B13" s="93" t="s">
         <v>332</v>
       </c>
@@ -3849,7 +3855,7 @@
       <c r="F13" s="93"/>
     </row>
     <row r="14" spans="1:8" ht="26" x14ac:dyDescent="0.15">
-      <c r="A14" s="101"/>
+      <c r="A14" s="102"/>
       <c r="B14" s="93" t="s">
         <v>336</v>
       </c>
@@ -3864,7 +3870,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="101"/>
+      <c r="A15" s="102"/>
       <c r="B15" s="93" t="s">
         <v>333</v>
       </c>
@@ -3876,7 +3882,7 @@
       <c r="F15" s="93"/>
     </row>
     <row r="16" spans="1:8" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="102"/>
+      <c r="A16" s="103"/>
       <c r="B16" s="94" t="s">
         <v>334</v>
       </c>
@@ -3909,8 +3915,8 @@
   </sheetPr>
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E25" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView tabSelected="1" topLeftCell="K20" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4001,10 +4007,10 @@
       <c r="B2" s="9">
         <v>44074</v>
       </c>
-      <c r="C2" s="130">
+      <c r="C2" s="106">
         <v>1</v>
       </c>
-      <c r="D2" s="133" t="s">
+      <c r="D2" s="109" t="s">
         <v>261</v>
       </c>
       <c r="E2" s="26">
@@ -4058,8 +4064,8 @@
         <f>B2+7</f>
         <v>44081</v>
       </c>
-      <c r="C3" s="131"/>
-      <c r="D3" s="134"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="110"/>
       <c r="E3" s="26">
         <v>2</v>
       </c>
@@ -4110,8 +4116,8 @@
         <f>B3+7</f>
         <v>44088</v>
       </c>
-      <c r="C4" s="131"/>
-      <c r="D4" s="134"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="110"/>
       <c r="E4" s="26">
         <v>2</v>
       </c>
@@ -4163,8 +4169,8 @@
         <f t="shared" ref="B5:B8" si="0">B4+7</f>
         <v>44095</v>
       </c>
-      <c r="C5" s="131"/>
-      <c r="D5" s="134"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="110"/>
       <c r="E5" s="26">
         <v>3</v>
       </c>
@@ -4216,8 +4222,8 @@
         <f>B5+7</f>
         <v>44102</v>
       </c>
-      <c r="C6" s="131"/>
-      <c r="D6" s="134"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="110"/>
       <c r="E6" s="26">
         <v>4</v>
       </c>
@@ -4271,8 +4277,8 @@
         <f t="shared" si="0"/>
         <v>44109</v>
       </c>
-      <c r="C7" s="131"/>
-      <c r="D7" s="134"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="110"/>
       <c r="E7" s="26">
         <v>4</v>
       </c>
@@ -4320,8 +4326,8 @@
         <f t="shared" si="0"/>
         <v>44116</v>
       </c>
-      <c r="C8" s="132"/>
-      <c r="D8" s="135"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="111"/>
       <c r="E8" s="26">
         <v>5</v>
       </c>
@@ -4368,24 +4374,24 @@
       <c r="X8" s="75"/>
     </row>
     <row r="9" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="117"/>
-      <c r="C9" s="117"/>
-      <c r="D9" s="117"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="117"/>
-      <c r="M9" s="117"/>
-      <c r="N9" s="117"/>
-      <c r="O9" s="117"/>
-      <c r="P9" s="117"/>
+      <c r="B9" s="105"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="105"/>
+      <c r="N9" s="105"/>
+      <c r="O9" s="105"/>
+      <c r="P9" s="105"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="41"/>
       <c r="S9" s="32"/>
@@ -4401,10 +4407,10 @@
         <f>B8+21</f>
         <v>44137</v>
       </c>
-      <c r="C10" s="130">
+      <c r="C10" s="106">
         <v>1</v>
       </c>
-      <c r="D10" s="133" t="s">
+      <c r="D10" s="109" t="s">
         <v>261</v>
       </c>
       <c r="E10" s="26">
@@ -4454,8 +4460,8 @@
         <f t="shared" ref="B11:B16" si="1">B10+7</f>
         <v>44144</v>
       </c>
-      <c r="C11" s="131"/>
-      <c r="D11" s="134"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="110"/>
       <c r="E11" s="26">
         <v>6</v>
       </c>
@@ -4503,8 +4509,8 @@
         <f t="shared" si="1"/>
         <v>44151</v>
       </c>
-      <c r="C12" s="131"/>
-      <c r="D12" s="134"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="110"/>
       <c r="E12" s="26">
         <v>6</v>
       </c>
@@ -4549,8 +4555,8 @@
         <f t="shared" si="1"/>
         <v>44158</v>
       </c>
-      <c r="C13" s="131"/>
-      <c r="D13" s="134"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="110"/>
       <c r="E13" s="26">
         <v>7</v>
       </c>
@@ -4602,8 +4608,8 @@
         <f t="shared" si="1"/>
         <v>44165</v>
       </c>
-      <c r="C14" s="131"/>
-      <c r="D14" s="134"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="110"/>
       <c r="E14" s="26">
         <v>7</v>
       </c>
@@ -4650,8 +4656,8 @@
         <f t="shared" si="1"/>
         <v>44172</v>
       </c>
-      <c r="C15" s="131"/>
-      <c r="D15" s="134"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="110"/>
       <c r="E15" s="26">
         <v>8</v>
       </c>
@@ -4705,8 +4711,8 @@
         <f t="shared" si="1"/>
         <v>44179</v>
       </c>
-      <c r="C16" s="132"/>
-      <c r="D16" s="135"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="111"/>
       <c r="E16" s="26">
         <v>8</v>
       </c>
@@ -4747,24 +4753,24 @@
       <c r="X16" s="75"/>
     </row>
     <row r="17" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="116" t="s">
+      <c r="A17" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="117"/>
-      <c r="C17" s="117"/>
-      <c r="D17" s="117"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="117"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="117"/>
-      <c r="I17" s="117"/>
-      <c r="J17" s="117"/>
-      <c r="K17" s="117"/>
-      <c r="L17" s="117"/>
-      <c r="M17" s="117"/>
-      <c r="N17" s="117"/>
-      <c r="O17" s="117"/>
-      <c r="P17" s="117"/>
+      <c r="B17" s="105"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="105"/>
+      <c r="K17" s="105"/>
+      <c r="L17" s="105"/>
+      <c r="M17" s="105"/>
+      <c r="N17" s="105"/>
+      <c r="O17" s="105"/>
+      <c r="P17" s="105"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="41"/>
       <c r="S17" s="32"/>
@@ -4780,10 +4786,10 @@
         <f>B16+21</f>
         <v>44200</v>
       </c>
-      <c r="C18" s="110">
+      <c r="C18" s="119">
         <v>2</v>
       </c>
-      <c r="D18" s="113" t="s">
+      <c r="D18" s="122" t="s">
         <v>184</v>
       </c>
       <c r="E18" s="28">
@@ -4837,8 +4843,8 @@
         <f>B18+7</f>
         <v>44207</v>
       </c>
-      <c r="C19" s="111"/>
-      <c r="D19" s="114"/>
+      <c r="C19" s="120"/>
+      <c r="D19" s="123"/>
       <c r="E19" s="28">
         <v>1</v>
       </c>
@@ -4886,8 +4892,8 @@
         <f t="shared" ref="B20:B40" si="2">B19+7</f>
         <v>44214</v>
       </c>
-      <c r="C20" s="111"/>
-      <c r="D20" s="114"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="123"/>
       <c r="E20" s="28">
         <v>2</v>
       </c>
@@ -4939,8 +4945,8 @@
         <f>B20+7</f>
         <v>44221</v>
       </c>
-      <c r="C21" s="112"/>
-      <c r="D21" s="115"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="124"/>
       <c r="E21" s="28">
         <v>2</v>
       </c>
@@ -5038,24 +5044,24 @@
       <c r="X22" s="75"/>
     </row>
     <row r="23" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="116" t="s">
+      <c r="A23" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="117"/>
-      <c r="C23" s="117"/>
-      <c r="D23" s="117"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="117"/>
-      <c r="I23" s="117"/>
-      <c r="J23" s="117"/>
-      <c r="K23" s="117"/>
-      <c r="L23" s="117"/>
-      <c r="M23" s="117"/>
-      <c r="N23" s="117"/>
-      <c r="O23" s="117"/>
-      <c r="P23" s="117"/>
+      <c r="B23" s="105"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="105"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="105"/>
+      <c r="I23" s="105"/>
+      <c r="J23" s="105"/>
+      <c r="K23" s="105"/>
+      <c r="L23" s="105"/>
+      <c r="M23" s="105"/>
+      <c r="N23" s="105"/>
+      <c r="O23" s="105"/>
+      <c r="P23" s="105"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="50"/>
       <c r="S23" s="32"/>
@@ -5071,10 +5077,10 @@
         <f>B22+21</f>
         <v>44249</v>
       </c>
-      <c r="C24" s="118">
+      <c r="C24" s="125">
         <v>3</v>
       </c>
-      <c r="D24" s="121" t="s">
+      <c r="D24" s="128" t="s">
         <v>60</v>
       </c>
       <c r="E24" s="35">
@@ -5125,8 +5131,8 @@
         <f>B24+7</f>
         <v>44256</v>
       </c>
-      <c r="C25" s="119"/>
-      <c r="D25" s="122"/>
+      <c r="C25" s="126"/>
+      <c r="D25" s="129"/>
       <c r="E25" s="34">
         <v>2</v>
       </c>
@@ -5171,8 +5177,8 @@
         <f>B25+7</f>
         <v>44263</v>
       </c>
-      <c r="C26" s="119"/>
-      <c r="D26" s="122"/>
+      <c r="C26" s="126"/>
+      <c r="D26" s="129"/>
       <c r="E26" s="29">
         <v>3</v>
       </c>
@@ -5222,8 +5228,8 @@
         <f t="shared" si="2"/>
         <v>44270</v>
       </c>
-      <c r="C27" s="119"/>
-      <c r="D27" s="122"/>
+      <c r="C27" s="126"/>
+      <c r="D27" s="129"/>
       <c r="E27" s="35">
         <v>3</v>
       </c>
@@ -5270,8 +5276,8 @@
         <f t="shared" si="2"/>
         <v>44277</v>
       </c>
-      <c r="C28" s="119"/>
-      <c r="D28" s="122"/>
+      <c r="C28" s="126"/>
+      <c r="D28" s="129"/>
       <c r="E28" s="29">
         <v>4</v>
       </c>
@@ -5321,8 +5327,8 @@
         <f t="shared" si="2"/>
         <v>44284</v>
       </c>
-      <c r="C29" s="120"/>
-      <c r="D29" s="123"/>
+      <c r="C29" s="127"/>
+      <c r="D29" s="130"/>
       <c r="E29" s="35">
         <v>4</v>
       </c>
@@ -5418,24 +5424,24 @@
       <c r="X30" s="75"/>
     </row>
     <row r="31" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="103" t="s">
+      <c r="A31" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="104"/>
-      <c r="C31" s="104"/>
-      <c r="D31" s="104"/>
-      <c r="E31" s="104"/>
-      <c r="F31" s="104"/>
-      <c r="G31" s="104"/>
-      <c r="H31" s="104"/>
-      <c r="I31" s="104"/>
-      <c r="J31" s="104"/>
-      <c r="K31" s="104"/>
-      <c r="L31" s="104"/>
-      <c r="M31" s="104"/>
-      <c r="N31" s="104"/>
-      <c r="O31" s="104"/>
-      <c r="P31" s="104"/>
+      <c r="B31" s="113"/>
+      <c r="C31" s="113"/>
+      <c r="D31" s="113"/>
+      <c r="E31" s="113"/>
+      <c r="F31" s="113"/>
+      <c r="G31" s="113"/>
+      <c r="H31" s="113"/>
+      <c r="I31" s="113"/>
+      <c r="J31" s="113"/>
+      <c r="K31" s="113"/>
+      <c r="L31" s="113"/>
+      <c r="M31" s="113"/>
+      <c r="N31" s="113"/>
+      <c r="O31" s="113"/>
+      <c r="P31" s="113"/>
       <c r="Q31" s="47"/>
       <c r="R31" s="51"/>
       <c r="S31" s="32"/>
@@ -5451,10 +5457,10 @@
         <f>B30+21</f>
         <v>44312</v>
       </c>
-      <c r="C32" s="124">
+      <c r="C32" s="131">
         <v>4</v>
       </c>
-      <c r="D32" s="127" t="s">
+      <c r="D32" s="134" t="s">
         <v>43</v>
       </c>
       <c r="E32" s="30">
@@ -5508,8 +5514,8 @@
         <f>B32+7</f>
         <v>44319</v>
       </c>
-      <c r="C33" s="125"/>
-      <c r="D33" s="128"/>
+      <c r="C33" s="132"/>
+      <c r="D33" s="135"/>
       <c r="E33" s="30">
         <v>2</v>
       </c>
@@ -5554,8 +5560,8 @@
         <f t="shared" si="2"/>
         <v>44326</v>
       </c>
-      <c r="C34" s="125"/>
-      <c r="D34" s="128"/>
+      <c r="C34" s="132"/>
+      <c r="D34" s="135"/>
       <c r="E34" s="30">
         <v>3</v>
       </c>
@@ -5601,8 +5607,8 @@
         <f t="shared" si="2"/>
         <v>44333</v>
       </c>
-      <c r="C35" s="126"/>
-      <c r="D35" s="129"/>
+      <c r="C35" s="133"/>
+      <c r="D35" s="136"/>
       <c r="E35" s="30">
         <v>4</v>
       </c>
@@ -5646,10 +5652,10 @@
         <f t="shared" si="2"/>
         <v>44340</v>
       </c>
-      <c r="C36" s="107">
+      <c r="C36" s="116">
         <v>5</v>
       </c>
-      <c r="D36" s="105" t="s">
+      <c r="D36" s="114" t="s">
         <v>49</v>
       </c>
       <c r="E36" s="31">
@@ -5666,13 +5672,17 @@
       <c r="J36" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="K36" s="39"/>
+      <c r="K36" s="39" t="s">
+        <v>376</v>
+      </c>
       <c r="L36" s="39"/>
       <c r="M36" s="39"/>
       <c r="N36" s="39"/>
       <c r="O36" s="7"/>
       <c r="P36" s="45"/>
-      <c r="Q36" s="7"/>
+      <c r="Q36" s="100" t="s">
+        <v>62</v>
+      </c>
       <c r="R36" s="53" t="s">
         <v>76</v>
       </c>
@@ -5689,8 +5699,8 @@
         <f t="shared" si="2"/>
         <v>44347</v>
       </c>
-      <c r="C37" s="108"/>
-      <c r="D37" s="106"/>
+      <c r="C37" s="117"/>
+      <c r="D37" s="115"/>
       <c r="E37" s="31">
         <v>1</v>
       </c>
@@ -5705,7 +5715,6 @@
       <c r="J37" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="K37" s="39"/>
       <c r="L37" s="39"/>
       <c r="M37" s="39"/>
       <c r="N37" s="39"/>
@@ -5730,8 +5739,8 @@
         <f t="shared" si="2"/>
         <v>44354</v>
       </c>
-      <c r="C38" s="108"/>
-      <c r="D38" s="106"/>
+      <c r="C38" s="117"/>
+      <c r="D38" s="115"/>
       <c r="E38" s="31">
         <v>1</v>
       </c>
@@ -5769,8 +5778,8 @@
         <f t="shared" si="2"/>
         <v>44361</v>
       </c>
-      <c r="C39" s="108"/>
-      <c r="D39" s="106"/>
+      <c r="C39" s="117"/>
+      <c r="D39" s="115"/>
       <c r="E39" s="31">
         <v>1</v>
       </c>
@@ -5808,8 +5817,8 @@
         <f t="shared" si="2"/>
         <v>44368</v>
       </c>
-      <c r="C40" s="109"/>
-      <c r="D40" s="106"/>
+      <c r="C40" s="118"/>
+      <c r="D40" s="115"/>
       <c r="E40" s="31">
         <v>1</v>
       </c>
@@ -5838,24 +5847,24 @@
       <c r="X40" s="75"/>
     </row>
     <row r="41" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="103" t="s">
+      <c r="A41" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="104"/>
-      <c r="C41" s="104"/>
-      <c r="D41" s="104"/>
-      <c r="E41" s="104"/>
-      <c r="F41" s="104"/>
-      <c r="G41" s="104"/>
-      <c r="H41" s="104"/>
-      <c r="I41" s="104"/>
-      <c r="J41" s="104"/>
-      <c r="K41" s="104"/>
-      <c r="L41" s="104"/>
-      <c r="M41" s="104"/>
-      <c r="N41" s="104"/>
-      <c r="O41" s="104"/>
-      <c r="P41" s="104"/>
+      <c r="B41" s="113"/>
+      <c r="C41" s="113"/>
+      <c r="D41" s="113"/>
+      <c r="E41" s="113"/>
+      <c r="F41" s="113"/>
+      <c r="G41" s="113"/>
+      <c r="H41" s="113"/>
+      <c r="I41" s="113"/>
+      <c r="J41" s="113"/>
+      <c r="K41" s="113"/>
+      <c r="L41" s="113"/>
+      <c r="M41" s="113"/>
+      <c r="N41" s="113"/>
+      <c r="O41" s="113"/>
+      <c r="P41" s="113"/>
       <c r="Q41" s="47"/>
       <c r="R41" s="51"/>
       <c r="V41" s="70"/>
@@ -5924,12 +5933,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A9:P9"/>
-    <mergeCell ref="A17:P17"/>
-    <mergeCell ref="C2:C8"/>
-    <mergeCell ref="D2:D8"/>
-    <mergeCell ref="D10:D16"/>
-    <mergeCell ref="C10:C16"/>
     <mergeCell ref="A41:P41"/>
     <mergeCell ref="D36:D40"/>
     <mergeCell ref="C36:C40"/>
@@ -5941,6 +5944,12 @@
     <mergeCell ref="A31:P31"/>
     <mergeCell ref="C32:C35"/>
     <mergeCell ref="D32:D35"/>
+    <mergeCell ref="A9:P9"/>
+    <mergeCell ref="A17:P17"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="D2:D8"/>
+    <mergeCell ref="D10:D16"/>
+    <mergeCell ref="C10:C16"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6734,12 +6743,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="137" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="138"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="139"/>
     </row>
     <row r="2" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A2" s="54" t="s">
@@ -6830,12 +6839,12 @@
       <c r="D11" s="61"/>
     </row>
     <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A12" s="136" t="s">
+      <c r="A12" s="137" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="137"/>
-      <c r="C12" s="137"/>
-      <c r="D12" s="138"/>
+      <c r="B12" s="138"/>
+      <c r="C12" s="138"/>
+      <c r="D12" s="139"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="54" t="s">
@@ -7100,12 +7109,12 @@
       <c r="D40" s="61"/>
     </row>
     <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="139" t="s">
+      <c r="A41" s="140" t="s">
         <v>140</v>
       </c>
-      <c r="B41" s="140"/>
-      <c r="C41" s="140"/>
-      <c r="D41" s="141"/>
+      <c r="B41" s="141"/>
+      <c r="C41" s="141"/>
+      <c r="D41" s="142"/>
     </row>
     <row r="42" spans="1:4" ht="33" x14ac:dyDescent="0.15">
       <c r="A42" s="54" t="s">
@@ -7204,12 +7213,12 @@
       <c r="D51" s="66"/>
     </row>
     <row r="52" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="142" t="s">
+      <c r="A52" s="143" t="s">
         <v>159</v>
       </c>
-      <c r="B52" s="143"/>
-      <c r="C52" s="143"/>
-      <c r="D52" s="144"/>
+      <c r="B52" s="144"/>
+      <c r="C52" s="144"/>
+      <c r="D52" s="145"/>
     </row>
     <row r="53" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A53" s="67" t="s">
@@ -7298,12 +7307,12 @@
       <c r="D61" s="66"/>
     </row>
     <row r="62" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="142" t="s">
+      <c r="A62" s="143" t="s">
         <v>176</v>
       </c>
-      <c r="B62" s="143"/>
-      <c r="C62" s="143"/>
-      <c r="D62" s="144"/>
+      <c r="B62" s="144"/>
+      <c r="C62" s="144"/>
+      <c r="D62" s="145"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="67" t="s">
